--- a/biology/Botanique/Cannabis_en_Italie/Cannabis_en_Italie.xlsx
+++ b/biology/Botanique/Cannabis_en_Italie/Cannabis_en_Italie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 18 mars 2018, l'Italie comptait 39 013 938 habitants entre 15 et 64 ans. Chez les jeunes adultes (15 - 34 ans), 20,7% de la population consommait du cannabis représentant 15.5% des femmes et 25,8% des hommes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18 mars 2018, l'Italie comptait 39 013 938 habitants entre 15 et 64 ans. Chez les jeunes adultes (15 - 34 ans), 20,7% de la population consommait du cannabis représentant 15.5% des femmes et 25,8% des hommes.
 En Italie, la quantité maximale de cannabis autorisée pour la consommation personnelle était alors de 5 g. Au-delà, la possession était assimilée à du trafic.
-Depuis avril 2013, l'usage de cannabis thérapeutique est en revanche autorisée en Italie[2]. On en trouve dans certaines supérettes, en vente, aux caisses, par exemple chez Marro Anna Margherita, à Limone Piemonte, en février 2020.
+Depuis avril 2013, l'usage de cannabis thérapeutique est en revanche autorisée en Italie. On en trouve dans certaines supérettes, en vente, aux caisses, par exemple chez Marro Anna Margherita, à Limone Piemonte, en février 2020.
 </t>
         </is>
       </c>
